--- a/base.xlsx
+++ b/base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanur\Downloads\ED2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F66C31-E43E-46C2-A14A-EDF859B847F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1549634-55B1-41AE-B605-334F03E7CD00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F2ED320F-D8B6-49C6-9716-D7A62A510C7A}"/>
   </bookViews>
@@ -358,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1853">
   <si>
     <t>Local</t>
   </si>
@@ -5917,9 +5917,6 @@
   </si>
   <si>
     <t>https://pt.wikipedia.org/wiki/Zimbabwe</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -5933,7 +5930,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5953,12 +5950,6 @@
       <color rgb="FF2D3748"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6047,10 +6038,10 @@
   </cellStyles>
   <dxfs count="114">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6070,7 +6061,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -6089,7 +6080,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -6132,6 +6123,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6171,9 +6165,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -6185,6 +6176,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6234,9 +6228,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6250,10 +6241,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6310,11 +6297,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6336,18 +6330,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6405,7 +6392,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6427,12 +6414,19 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.000"/>
@@ -6446,7 +6440,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -6734,25 +6744,6 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -6807,73 +6798,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4834CA85-5BC1-48FB-8E35-532016D05CEB}" name="Tabela1" displayName="Tabela1" ref="A1:BG274" totalsRowCount="1" headerRowDxfId="113" headerRowCellStyle="Vírgula">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4834CA85-5BC1-48FB-8E35-532016D05CEB}" name="Tabela1" displayName="Tabela1" ref="A1:BG273" totalsRowShown="0" headerRowDxfId="113" headerRowCellStyle="Vírgula">
   <autoFilter ref="A1:BG273" xr:uid="{FEBC22D3-12B7-4666-9969-722BBFD952E8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG273">
     <sortCondition ref="A1:A273"/>
   </sortState>
   <tableColumns count="59">
-    <tableColumn id="2" xr3:uid="{CFB60ABA-CC87-44EB-A205-EE2589D7F2AE}" name="Local" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{83B6E773-60F4-4123-927A-390BB4A2BD94}" name="População" dataDxfId="109" totalsRowDxfId="110" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" xr3:uid="{A996602F-4239-411F-8C80-79BE43DC9C08}" name="Área em Km2" dataDxfId="107" totalsRowDxfId="108" dataCellStyle="Vírgula"/>
-    <tableColumn id="6" xr3:uid="{80B72133-A908-4879-9D98-68DC312686F8}" name="Continente" dataDxfId="105" totalsRowDxfId="106" dataCellStyle="Vírgula"/>
-    <tableColumn id="7" xr3:uid="{3AC0FBAB-B4E5-4272-862A-80DD073EA97D}" name="Região" dataDxfId="103" totalsRowDxfId="104" dataCellStyle="Vírgula"/>
-    <tableColumn id="8" xr3:uid="{60CCA9D3-9C75-404B-9899-A073617C8021}" name="Capital" dataDxfId="101" totalsRowDxfId="102" dataCellStyle="Vírgula"/>
-    <tableColumn id="9" xr3:uid="{94DD6A4D-2377-4AE3-A353-C67E157C995A}" name="Maior cidade" dataDxfId="99" totalsRowDxfId="100" dataCellStyle="Vírgula"/>
-    <tableColumn id="10" xr3:uid="{7BA11274-1F67-48F8-AAEC-BFF75B72EC17}" name="PIB PPC" dataDxfId="97" totalsRowDxfId="98" dataCellStyle="Vírgula"/>
-    <tableColumn id="11" xr3:uid="{7939B6C4-8F3F-48A1-94F3-0B113E030528}" name="PIB nominal" dataDxfId="95" totalsRowDxfId="96" dataCellStyle="Vírgula"/>
-    <tableColumn id="29" xr3:uid="{8481ECEF-1058-4646-9F90-DCB3AB82C85F}" name="GINI" dataDxfId="93" totalsRowDxfId="94"/>
-    <tableColumn id="30" xr3:uid="{18CE433C-E7FC-4DD7-8387-66353878E522}" name="IDH" dataDxfId="91" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{CFB60ABA-CC87-44EB-A205-EE2589D7F2AE}" name="Local" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{83B6E773-60F4-4123-927A-390BB4A2BD94}" name="População" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{A996602F-4239-411F-8C80-79BE43DC9C08}" name="Área em Km2" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Vírgula"/>
+    <tableColumn id="6" xr3:uid="{80B72133-A908-4879-9D98-68DC312686F8}" name="Continente" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Vírgula"/>
+    <tableColumn id="7" xr3:uid="{3AC0FBAB-B4E5-4272-862A-80DD073EA97D}" name="Região" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Vírgula"/>
+    <tableColumn id="8" xr3:uid="{60CCA9D3-9C75-404B-9899-A073617C8021}" name="Capital" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Vírgula"/>
+    <tableColumn id="9" xr3:uid="{94DD6A4D-2377-4AE3-A353-C67E157C995A}" name="Maior cidade" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Vírgula"/>
+    <tableColumn id="10" xr3:uid="{7BA11274-1F67-48F8-AAEC-BFF75B72EC17}" name="PIB PPC" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="Vírgula"/>
+    <tableColumn id="11" xr3:uid="{7939B6C4-8F3F-48A1-94F3-0B113E030528}" name="PIB nominal" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="Vírgula"/>
+    <tableColumn id="29" xr3:uid="{8481ECEF-1058-4646-9F90-DCB3AB82C85F}" name="GINI" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="30" xr3:uid="{18CE433C-E7FC-4DD7-8387-66353878E522}" name="IDH" dataDxfId="92" totalsRowDxfId="91"/>
     <tableColumn id="31" xr3:uid="{E86461DC-D311-42D8-A4F9-DFE145011A56}" name="Moeda" dataDxfId="90"/>
     <tableColumn id="32" xr3:uid="{E8CDCC00-6D7D-44CF-846D-78908A34D41C}" name="Nome em inglês" dataDxfId="89"/>
     <tableColumn id="33" xr3:uid="{4CFE19AF-4978-4771-97A4-CB0B87898C9A}" name="Nome local" dataDxfId="88"/>
-    <tableColumn id="34" xr3:uid="{FC38098C-2EAA-431E-845E-F85AB9F74689}" name="Códio ISO" dataDxfId="86" totalsRowDxfId="87"/>
-    <tableColumn id="35" xr3:uid="{53E0027C-98BA-499F-90D8-355C99254E38}" name="Código telefônico" dataDxfId="84" totalsRowDxfId="85"/>
-    <tableColumn id="36" xr3:uid="{75DCC320-3565-48A9-9001-C7F14F5BCBDC}" name="Domínio de Internet" dataDxfId="82" totalsRowDxfId="83"/>
-    <tableColumn id="13" xr3:uid="{0143B05C-E037-48E2-9653-6E7282C3FD00}" name="APEC" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="81"/>
-    <tableColumn id="14" xr3:uid="{998F7019-BF32-4D3C-A855-61F4FB4F8D83}" name="ASEAN" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="79"/>
-    <tableColumn id="20" xr3:uid="{ADD77557-F4DF-46FD-985B-FE272E16B2BF}" name="BRICS" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="77"/>
-    <tableColumn id="37" xr3:uid="{37CCDE2C-F7E1-4A04-99E3-712D72875C10}" name="CAN" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="75"/>
-    <tableColumn id="38" xr3:uid="{F76F7991-303B-4A21-ACEF-83E5EFD0D774}" name="CAO" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="73"/>
-    <tableColumn id="39" xr3:uid="{023BBBA9-8DC0-4ED1-8164-FA7DF59DCAD0}" name="CARICOM" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71"/>
-    <tableColumn id="40" xr3:uid="{0CADC9E0-3F90-4551-BE81-4B08D26D7FAC}" name="CEI" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69"/>
-    <tableColumn id="41" xr3:uid="{06B20497-7A47-4CB1-8E64-4B1E04BA1B89}" name="CEMAC" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67"/>
-    <tableColumn id="59" xr3:uid="{AFE7F343-F5F3-4656-9955-D8EEBD8053A0}" name="COI" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="65"/>
-    <tableColumn id="42" xr3:uid="{87C1217C-E1C5-446F-8BF3-8B33C3FDE4B2}" name="Commonwealth" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="63"/>
-    <tableColumn id="43" xr3:uid="{D783FF00-9BDA-4F0F-8BA9-69D7CC0374E8}" name="EFTA" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="61"/>
-    <tableColumn id="44" xr3:uid="{B7D65B80-1EED-4019-B75A-D2FB0CCA5D24}" name="Ex-URSS" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59"/>
-    <tableColumn id="60" xr3:uid="{8744866B-A02A-4E71-91BF-99B937AAE90A}" name="FIFA" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57"/>
-    <tableColumn id="45" xr3:uid="{E0991029-314A-4A80-B184-4DD97F75A3B4}" name="G20" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55"/>
-    <tableColumn id="46" xr3:uid="{7BC60D04-C21C-4293-9F01-9C45C411B160}" name="G7" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53"/>
-    <tableColumn id="47" xr3:uid="{467A6CD3-B8BA-4B8C-B893-20B5B0985729}" name="IGAD" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51"/>
-    <tableColumn id="48" xr3:uid="{592B68EA-1BCE-4031-8A82-8732811D6221}" name="MCCA" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49"/>
-    <tableColumn id="49" xr3:uid="{112AE2CA-1C22-4267-95E2-4B20F9E5072F}" name="Mercosul" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="47"/>
-    <tableColumn id="50" xr3:uid="{639AFE6F-3C01-4D20-A9A6-80B3EDB9745F}" name="NAFTA" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="45"/>
-    <tableColumn id="51" xr3:uid="{7AA36D8D-3C2C-4FB7-8CE4-1DCECCB4F80B}" name="OCDE" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43"/>
-    <tableColumn id="52" xr3:uid="{5957917E-8D8B-4E57-BA68-9D7489DC3515}" name="OEA" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41"/>
-    <tableColumn id="66" xr3:uid="{CA1CE6F7-1698-45C0-87DA-9930EFD70FC4}" name="OMC" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39"/>
-    <tableColumn id="65" xr3:uid="{71785A1A-934B-4FD6-8FD5-B0A8DA8321A3}" name="ONU" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="37"/>
-    <tableColumn id="53" xr3:uid="{5B140378-2B73-45EF-B665-4ADFF2404C99}" name="OPEP" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="35"/>
-    <tableColumn id="54" xr3:uid="{2B187BA0-CF2C-4300-BFCC-EDA5A1938368}" name="OTAN" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="33"/>
-    <tableColumn id="55" xr3:uid="{E10CE77B-9B78-4F7A-8427-A41F12F3DC9F}" name="SAARC" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="31"/>
-    <tableColumn id="56" xr3:uid="{92596117-6EC6-4C70-B90E-EB14C2E7A068}" name="SADC" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="29"/>
-    <tableColumn id="61" xr3:uid="{2344BC88-0A07-4C25-9204-09B241BB905C}" name="UE" dataDxfId="26" totalsRowDxfId="27"/>
-    <tableColumn id="57" xr3:uid="{01160379-5B84-4865-9674-63D973FA9905}" name="UEMOA" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="25"/>
-    <tableColumn id="58" xr3:uid="{C49AC760-0100-4319-A362-8EFB0B9B2801}" name="UMA" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="63" xr3:uid="{09F82857-894F-417A-89B9-16682B4C310E}" name="ZE" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="21">
-      <totalsRowFormula>SUBTOTAL(109,#REF!)</totalsRowFormula>
-    </tableColumn>
+    <tableColumn id="34" xr3:uid="{FC38098C-2EAA-431E-845E-F85AB9F74689}" name="Códio ISO" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="35" xr3:uid="{53E0027C-98BA-499F-90D8-355C99254E38}" name="Código telefônico" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="36" xr3:uid="{75DCC320-3565-48A9-9001-C7F14F5BCBDC}" name="Domínio de Internet" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{0143B05C-E037-48E2-9653-6E7282C3FD00}" name="APEC" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{998F7019-BF32-4D3C-A855-61F4FB4F8D83}" name="ASEAN" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="20" xr3:uid="{ADD77557-F4DF-46FD-985B-FE272E16B2BF}" name="BRICS" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="37" xr3:uid="{37CCDE2C-F7E1-4A04-99E3-712D72875C10}" name="CAN" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="38" xr3:uid="{F76F7991-303B-4A21-ACEF-83E5EFD0D774}" name="CAO" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="39" xr3:uid="{023BBBA9-8DC0-4ED1-8164-FA7DF59DCAD0}" name="CARICOM" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="40" xr3:uid="{0CADC9E0-3F90-4551-BE81-4B08D26D7FAC}" name="CEI" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="41" xr3:uid="{06B20497-7A47-4CB1-8E64-4B1E04BA1B89}" name="CEMAC" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="59" xr3:uid="{AFE7F343-F5F3-4656-9955-D8EEBD8053A0}" name="COI" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="42" xr3:uid="{87C1217C-E1C5-446F-8BF3-8B33C3FDE4B2}" name="Commonwealth" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="43" xr3:uid="{D783FF00-9BDA-4F0F-8BA9-69D7CC0374E8}" name="EFTA" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="44" xr3:uid="{B7D65B80-1EED-4019-B75A-D2FB0CCA5D24}" name="Ex-URSS" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="60" xr3:uid="{8744866B-A02A-4E71-91BF-99B937AAE90A}" name="FIFA" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="45" xr3:uid="{E0991029-314A-4A80-B184-4DD97F75A3B4}" name="G20" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="46" xr3:uid="{7BC60D04-C21C-4293-9F01-9C45C411B160}" name="G7" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="47" xr3:uid="{467A6CD3-B8BA-4B8C-B893-20B5B0985729}" name="IGAD" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="48" xr3:uid="{592B68EA-1BCE-4031-8A82-8732811D6221}" name="MCCA" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="49" xr3:uid="{112AE2CA-1C22-4267-95E2-4B20F9E5072F}" name="Mercosul" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="50" xr3:uid="{639AFE6F-3C01-4D20-A9A6-80B3EDB9745F}" name="NAFTA" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="51" xr3:uid="{7AA36D8D-3C2C-4FB7-8CE4-1DCECCB4F80B}" name="OCDE" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="52" xr3:uid="{5957917E-8D8B-4E57-BA68-9D7489DC3515}" name="OEA" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="66" xr3:uid="{CA1CE6F7-1698-45C0-87DA-9930EFD70FC4}" name="OMC" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="65" xr3:uid="{71785A1A-934B-4FD6-8FD5-B0A8DA8321A3}" name="ONU" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="53" xr3:uid="{5B140378-2B73-45EF-B665-4ADFF2404C99}" name="OPEP" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="54" xr3:uid="{2B187BA0-CF2C-4300-BFCC-EDA5A1938368}" name="OTAN" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="55" xr3:uid="{E10CE77B-9B78-4F7A-8427-A41F12F3DC9F}" name="SAARC" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="56" xr3:uid="{92596117-6EC6-4C70-B90E-EB14C2E7A068}" name="SADC" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="61" xr3:uid="{2344BC88-0A07-4C25-9204-09B241BB905C}" name="UE" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="57" xr3:uid="{01160379-5B84-4865-9674-63D973FA9905}" name="UEMOA" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="58" xr3:uid="{C49AC760-0100-4319-A362-8EFB0B9B2801}" name="UMA" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="63" xr3:uid="{09F82857-894F-417A-89B9-16682B4C310E}" name="ZE" dataDxfId="21" totalsRowDxfId="20"/>
     <tableColumn id="25" xr3:uid="{5244C8C1-E5D8-433A-8E95-12C5C62E8475}" name="Vinculado a" dataDxfId="19"/>
     <tableColumn id="26" xr3:uid="{D5C8A7E9-7D91-4139-ABE1-479BC94C6751}" name="Situação de autonomia" dataDxfId="18"/>
-    <tableColumn id="27" xr3:uid="{A896229C-947A-4892-A4AB-CED6510A4ED9}" name="Pequeno país?" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="28" xr3:uid="{F8368B54-FCF8-434D-BA49-36B3C6531E57}" name="Insular?" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{5979C3FA-6A92-41C3-B60F-3B5F6DE240E8}" name="Transcontinental?" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{C1E06CAB-D3AA-4849-8332-B36BD276F213}" name="Prêmios Nobel" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{2658CD9A-0478-4460-904A-FDDB54422788}" name="Medalhas olímpicas" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{680DF29E-2FBE-44F8-B789-4B38C62CE505}" name="Patrimônios da Unesco" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{C86C0CEA-F476-455A-A176-C8D134F17FE3}" name="1000 lugares" dataDxfId="4" totalsRowDxfId="5" dataCellStyle="Porcentagem"/>
-    <tableColumn id="1" xr3:uid="{F5C9582D-85A6-4308-B38D-006837896EB9}" name="URL Wikipedia" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Porcentagem"/>
-    <tableColumn id="62" xr3:uid="{B070C70E-EA9E-43FD-B36D-6B2A0F9F4FA5}" name="Bloco principal" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{A896229C-947A-4892-A4AB-CED6510A4ED9}" name="Pequeno país?" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{F8368B54-FCF8-434D-BA49-36B3C6531E57}" name="Insular?" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{5979C3FA-6A92-41C3-B60F-3B5F6DE240E8}" name="Transcontinental?" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{C1E06CAB-D3AA-4849-8332-B36BD276F213}" name="Prêmios Nobel" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{2658CD9A-0478-4460-904A-FDDB54422788}" name="Medalhas olímpicas" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{680DF29E-2FBE-44F8-B789-4B38C62CE505}" name="Patrimônios da Unesco" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{C86C0CEA-F476-455A-A176-C8D134F17FE3}" name="1000 lugares" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Porcentagem"/>
+    <tableColumn id="1" xr3:uid="{F5C9582D-85A6-4308-B38D-006837896EB9}" name="URL Wikipedia" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem"/>
+    <tableColumn id="62" xr3:uid="{B070C70E-EA9E-43FD-B36D-6B2A0F9F4FA5}" name="Bloco principal" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7286,10 +7275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97DD8A8-2218-4FC3-AC6B-5C8D2C3D7DE5}">
-  <dimension ref="A1:BS277"/>
+  <dimension ref="A1:BS276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A274" sqref="A274:XFD274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36679,159 +36668,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="274" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C274"/>
-      <c r="D274"/>
-      <c r="E274"/>
-      <c r="F274"/>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274" s="18"/>
-      <c r="K274" s="18"/>
-      <c r="L274"/>
-      <c r="O274" s="18"/>
-      <c r="P274" s="18"/>
-      <c r="Q274" s="18"/>
-      <c r="R274" s="18">
-        <f>SUBTOTAL(109,Tabela1[APEC])</f>
-        <v>21</v>
-      </c>
-      <c r="S274" s="18">
-        <f>SUBTOTAL(109,Tabela1[ASEAN])</f>
-        <v>10</v>
-      </c>
-      <c r="T274" s="18">
-        <f>SUBTOTAL(109,Tabela1[BRICS])</f>
-        <v>5</v>
-      </c>
-      <c r="U274" s="18">
-        <f>SUBTOTAL(109,Tabela1[CAN])</f>
-        <v>4</v>
-      </c>
-      <c r="V274" s="18">
-        <f>SUBTOTAL(109,Tabela1[CAO])</f>
-        <v>5</v>
-      </c>
-      <c r="W274" s="18">
-        <f>SUBTOTAL(109,Tabela1[CARICOM])</f>
-        <v>15</v>
-      </c>
-      <c r="X274" s="18">
-        <f>SUBTOTAL(109,Tabela1[CEI])</f>
-        <v>11</v>
-      </c>
-      <c r="Y274" s="18">
-        <f>SUBTOTAL(109,Tabela1[CEMAC])</f>
-        <v>6</v>
-      </c>
-      <c r="Z274" s="17">
-        <f>SUBTOTAL(109,Tabela1[COI])</f>
-        <v>202</v>
-      </c>
-      <c r="AA274" s="18">
-        <f>SUBTOTAL(109,Tabela1[Commonwealth])</f>
-        <v>54</v>
-      </c>
-      <c r="AB274" s="18">
-        <f>SUBTOTAL(109,Tabela1[EFTA])</f>
-        <v>4</v>
-      </c>
-      <c r="AC274" s="18">
-        <f>SUBTOTAL(109,Tabela1[Ex-URSS])</f>
-        <v>15</v>
-      </c>
-      <c r="AD274" s="17">
-        <f>SUBTOTAL(109,Tabela1[FIFA])</f>
-        <v>211</v>
-      </c>
-      <c r="AE274" s="18">
-        <f>SUBTOTAL(109,Tabela1[G20])</f>
-        <v>19</v>
-      </c>
-      <c r="AF274" s="18">
-        <f>SUBTOTAL(109,Tabela1[G7])</f>
-        <v>7</v>
-      </c>
-      <c r="AG274" s="18">
-        <f>SUBTOTAL(109,Tabela1[IGAD])</f>
-        <v>8</v>
-      </c>
-      <c r="AH274" s="18">
-        <f>SUBTOTAL(109,Tabela1[MCCA])</f>
-        <v>5</v>
-      </c>
-      <c r="AI274" s="18">
-        <f>SUBTOTAL(109,Tabela1[Mercosul])</f>
-        <v>5</v>
-      </c>
-      <c r="AJ274" s="18">
-        <f>SUBTOTAL(109,Tabela1[NAFTA])</f>
-        <v>3</v>
-      </c>
-      <c r="AK274" s="18">
-        <f>SUBTOTAL(109,Tabela1[OCDE])</f>
-        <v>36</v>
-      </c>
-      <c r="AL274" s="18">
-        <f>SUBTOTAL(109,Tabela1[OEA])</f>
-        <v>35</v>
-      </c>
-      <c r="AM274" s="17">
-        <f>SUBTOTAL(109,Tabela1[OMC])</f>
-        <v>164</v>
-      </c>
-      <c r="AN274" s="17">
-        <f>SUBTOTAL(109,Tabela1[ONU])</f>
-        <v>193</v>
-      </c>
-      <c r="AO274" s="18">
-        <f>SUBTOTAL(109,Tabela1[OPEP])</f>
-        <v>13</v>
-      </c>
-      <c r="AP274" s="18">
-        <f>SUBTOTAL(109,Tabela1[OTAN])</f>
-        <v>28</v>
-      </c>
-      <c r="AQ274" s="18">
-        <f>SUBTOTAL(109,Tabela1[SAARC])</f>
-        <v>8</v>
-      </c>
-      <c r="AR274" s="18">
-        <f>SUBTOTAL(109,Tabela1[SADC])</f>
-        <v>15</v>
-      </c>
-      <c r="AS274" s="18"/>
-      <c r="AT274" s="18">
-        <f>SUBTOTAL(109,Tabela1[UEMOA])</f>
-        <v>7</v>
-      </c>
-      <c r="AU274" s="18">
-        <f>SUBTOTAL(109,Tabela1[UMA])</f>
-        <v>5</v>
-      </c>
-      <c r="AV274" s="18" t="e">
-        <f>SUBTOTAL(109,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AY274" s="18"/>
-      <c r="AZ274" s="18"/>
-      <c r="BA274" s="18"/>
-      <c r="BB274" s="18"/>
-      <c r="BC274" s="18"/>
-      <c r="BD274" s="18"/>
-      <c r="BE274" s="18"/>
-      <c r="BF274">
-        <f>SUBTOTAL(103,Tabela1[URL Wikipedia])</f>
-        <v>272</v>
-      </c>
-      <c r="BG274" s="18"/>
-    </row>
-    <row r="277" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B277" s="24"/>
+    <row r="276" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B276" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
